--- a/1.xlsx
+++ b/1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,94 +424,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>tiqueur.com</t>
+          <t>pecke.com</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>$12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tirpitz.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$3,000 + $12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>titchy.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$3,500 + $12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>titfer.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>$3,900 + $12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tiwed.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>$3,000 + $12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tiềngiang.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>$12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>toches.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>$1,500 + $12/year</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>togaed.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>$3,000 + $12/year</t>
         </is>
